--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/20/seed2/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.42</v>
+        <v>16.508</v>
       </c>
     </row>
     <row r="4">
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>17.038</v>
+        <v>16.95500000000001</v>
       </c>
     </row>
     <row r="15">
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.428</v>
+        <v>16.505</v>
       </c>
     </row>
     <row r="17">
@@ -797,7 +797,7 @@
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>16.442</v>
+        <v>16.559</v>
       </c>
     </row>
     <row r="22">
@@ -831,7 +831,7 @@
         <v>-8.59</v>
       </c>
       <c r="E23" t="n">
-        <v>16.602</v>
+        <v>16.55</v>
       </c>
     </row>
     <row r="24">
@@ -865,7 +865,7 @@
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>17.084</v>
+        <v>17.493</v>
       </c>
     </row>
     <row r="26">
@@ -882,7 +882,7 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.594</v>
+        <v>16.42</v>
       </c>
     </row>
     <row r="27">
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>16.604</v>
+        <v>16.801</v>
       </c>
     </row>
     <row r="30">
@@ -1120,7 +1120,7 @@
         <v>-7.23</v>
       </c>
       <c r="E40" t="n">
-        <v>16.58</v>
+        <v>16.541</v>
       </c>
     </row>
     <row r="41">
@@ -1341,7 +1341,7 @@
         <v>-7.23</v>
       </c>
       <c r="E53" t="n">
-        <v>16.726</v>
+        <v>16.613</v>
       </c>
     </row>
     <row r="54">
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.668</v>
+        <v>16.675</v>
       </c>
     </row>
     <row r="58">
@@ -1443,7 +1443,7 @@
         <v>-9.48</v>
       </c>
       <c r="E59" t="n">
-        <v>16.49</v>
+        <v>16.507</v>
       </c>
     </row>
     <row r="60">
@@ -1545,7 +1545,7 @@
         <v>-7.07</v>
       </c>
       <c r="E65" t="n">
-        <v>17.004</v>
+        <v>16.774</v>
       </c>
     </row>
     <row r="66">
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.428</v>
+        <v>17.563</v>
       </c>
     </row>
     <row r="70">
@@ -1783,7 +1783,7 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>17.346</v>
+        <v>17.06</v>
       </c>
     </row>
     <row r="80">
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.412</v>
+        <v>16.569</v>
       </c>
     </row>
     <row r="84">
@@ -1987,7 +1987,7 @@
         <v>-5.79</v>
       </c>
       <c r="E91" t="n">
-        <v>17.882</v>
+        <v>17.612</v>
       </c>
     </row>
     <row r="92">
@@ -2021,7 +2021,7 @@
         <v>-6.1</v>
       </c>
       <c r="E93" t="n">
-        <v>16.834</v>
+        <v>17.258</v>
       </c>
     </row>
     <row r="94">
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.4</v>
+        <v>16.749</v>
       </c>
     </row>
     <row r="101">
